--- a/medicine/Enfance/Justina_Ireland/Justina_Ireland.xlsx
+++ b/medicine/Enfance/Justina_Ireland/Justina_Ireland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Justina Ireland, née le 7 février 1985 à French Camp en Californie, est une autrice américaine de science-fiction et de fantasy.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,33 +553,215 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Univers Star Wars
-Série La Haute République
-Phase I : La Lumière des Jedi
+          <t>Univers Star Wars</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série La Haute République</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Phase I : La Lumière des Jedi
 Une épreuve de courage, Hachette Jeunesse, coll. « Bibliothèque verte », 2021 ((en) A Test of Courage, 2021), trad. Julien Bétan, 224 p.  (ISBN 978-2-01-628926-6)
 Hors de l'ombre, Pocket, coll. « Star Wars » no 186, 2022 ((en) Out of the Shadows, 2021), trad. Julien Bétan, 400 p.  (ISBN 978-2-266-32494-6)
 Mission catastrophe, Hachette Jeunesse, coll. « Bibliothèque verte », 2022 ((en) Mission to Disaster, 2022), trad. Julien Bétan, 224 p.  (ISBN 978-2-01-715389-4)
 Phase II : La Quête des Jedi
-La Voie de la duperie, Pocket, coll. « Star Wars » no 195, 2023 ((en) Path of Deceit, 2022), trad. Julien Bétan, 336 p.  (ISBN 978-2-266-33291-0)Coécrit avec Tessa Gratton.
-Romans indépendants
-(en) Lando's Luck, 2018
-(en) Spark of the Resistance, 2019
-Série Devils' Pass
-(en) Evie Allen vs. the Quiz Bowl Zombies, 2017
+La Voie de la duperie, Pocket, coll. « Star Wars » no 195, 2023 ((en) Path of Deceit, 2022), trad. Julien Bétan, 336 p.  (ISBN 978-2-266-33291-0)Coécrit avec Tessa Gratton.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Justina_Ireland</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Justina_Ireland</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Univers Star Wars</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Lando's Luck, 2018
+(en) Spark of the Resistance, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Justina_Ireland</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Justina_Ireland</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Devils' Pass</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Evie Allen vs. the Quiz Bowl Zombies, 2017
 (en) Jeff Allen vs. the Time Suck Vampire, 2017
 (en) Tiffany Donovan vs. the Cookie Elves of Destruction, 2017
 (en) Zach Lopez vs. the Unicorns of Doom, 2017
 (en) Tiffany Donovan vs. the Poison Werewolves, 2018
-(en) Zach Lopez vs. the Shadow Cats, 2018
-Série Dread Nation
-(en) Dread Nation, 2018Prix Locus du meilleur roman pour jeunes adultes 2019
-(en) Deathless Divide, 2020
-Série Chaos &amp; Flame
-Cette série est coécrite avec Tessa Gratton.
+(en) Zach Lopez vs. the Shadow Cats, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Justina_Ireland</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Justina_Ireland</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Dread Nation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Dread Nation, 2018Prix Locus du meilleur roman pour jeunes adultes 2019
+(en) Deathless Divide, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Justina_Ireland</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Justina_Ireland</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Chaos &amp; Flame</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cette série est coécrite avec Tessa Gratton.
 Chaos &amp; Flame, Castelmore, coll. « Big Bang », 2023 ((en) Chaos &amp; Flame, 2023), trad. Alison Jacquet-Robert, 416 p.  (ISBN 978-2-36231-715-6)
-(en) Blood &amp; Fury, 2024
-Romans indépendants
-(en) Vengeance Bound, 2013
+(en) Blood &amp; Fury, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Justina_Ireland</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Justina_Ireland</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(en) Vengeance Bound, 2013
 (en) Promise of Shadows, 2014
 (en) Scream Site, 2018
 (en) Ophie's Ghosts, 2021
